--- a/乐行-裴旭-工作日志.xlsx
+++ b/乐行-裴旭-工作日志.xlsx
@@ -194,12 +194,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.工程代码开始移植学习（理解HAL库并应用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.创建github账户，实操理解git应用
-2.通过CubeMX生成HAL层进行移植（在野火开发板上进行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.工程代码开始移植学习（理解HAL库并应用）</t>
+2.通过CubeMX生成HAL层进行移植（在野火开发板上进行）
+3.总结相关知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +643,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -792,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
